--- a/outputs-r202/g__ARS1246.xlsx
+++ b/outputs-r202/g__ARS1246.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,7 +459,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG521.fasta</t>
+          <t>RUG007.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -477,7 +477,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG557.fasta</t>
+          <t>RUG096.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -495,7 +495,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG561.fasta</t>
+          <t>RUG148.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -513,7 +513,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG684.fasta</t>
+          <t>RUG151.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -531,7 +531,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG783.fasta</t>
+          <t>RUG263.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -549,7 +549,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG796.fasta</t>
+          <t>RUG274.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -567,7 +567,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG813.fasta</t>
+          <t>RUG521.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG829.fasta</t>
+          <t>RUG557.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -603,16 +603,124 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>RUG561.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG684.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG783.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG796.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG813.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG829.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>s__ARS1246 sp002688185</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>hRUG900.fasta</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>s__ARS1246 sp002688185</t>
         </is>
